--- a/cmip6/models/mpi-esm1-2-hr/cmip6_dkrz_mpi-esm1-2-hr_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm1-2-hr/cmip6_dkrz_mpi-esm1-2-hr_ocnbgchem.xlsx
@@ -40,7 +40,7 @@
     <t>MPI-ESM1-2-HR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean Biogeochemistry</t>

--- a/cmip6/models/mpi-esm1-2-hr/cmip6_dkrz_mpi-esm1-2-hr_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm1-2-hr/cmip6_dkrz_mpi-esm1-2-hr_ocnbgchem.xlsx
@@ -187,13 +187,13 @@
     <t>cmip6.ocnbgchem.key_properties.model_type</t>
   </si>
   <si>
-    <t>Geochemical</t>
-  </si>
-  <si>
-    <t>NPZD</t>
-  </si>
-  <si>
-    <t>PFT</t>
+    <t>Geochemical: No living compartments</t>
+  </si>
+  <si>
+    <t>NPZD: No plankton types</t>
+  </si>
+  <si>
+    <t>PFT: Several plankton types</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -211,13 +211,13 @@
     <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Mix of both</t>
+    <t>Fixed: Fixed stoichiometry</t>
+  </si>
+  <si>
+    <t>Variable: Variable stoichiometry</t>
+  </si>
+  <si>
+    <t>Mix of both: Both fixed and mixed stoichiometry</t>
   </si>
   <si>
     <t>1.1.1.6 *</t>
@@ -289,10 +289,10 @@
     <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.passive_tracers_transport.method</t>
   </si>
   <si>
-    <t>Use ocean model transport time step</t>
-  </si>
-  <si>
-    <t>Use specific time step</t>
+    <t>use ocean model transport time step</t>
+  </si>
+  <si>
+    <t>use specific time step</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.2.2 </t>
@@ -412,13 +412,13 @@
     <t>cmip6.ocnbgchem.key_properties.boundary_forcing.atmospheric_deposition</t>
   </si>
   <si>
-    <t>From file (climatology)</t>
-  </si>
-  <si>
-    <t>From file (interannual variations)</t>
-  </si>
-  <si>
-    <t>From Atmospheric Chemistry model</t>
+    <t>from file (climatology)</t>
+  </si>
+  <si>
+    <t>from file (interannual variations)</t>
+  </si>
+  <si>
+    <t>from Atmospheric Chemistry model</t>
   </si>
   <si>
     <t>1.3.1.2 *</t>
@@ -433,7 +433,7 @@
     <t>cmip6.ocnbgchem.key_properties.boundary_forcing.river_input</t>
   </si>
   <si>
-    <t>From Land Surface model</t>
+    <t>from Land Surface model</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.3 </t>
@@ -991,7 +991,7 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>PFT including size based (specify both below)</t>
+    <t>PFT including size based (specify both below): Plankton functional type including size based</t>
   </si>
   <si>
     <t>Size based only (specify below)</t>
@@ -1111,13 +1111,13 @@
     <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.lability</t>
   </si>
   <si>
-    <t>Labile</t>
-  </si>
-  <si>
-    <t>Semi-labile</t>
-  </si>
-  <si>
-    <t>Refractory</t>
+    <t>Labile: Less than a few days</t>
+  </si>
+  <si>
+    <t>Semi-labile: Few days to a few years</t>
+  </si>
+  <si>
+    <t>Refractory: Over a few years</t>
   </si>
   <si>
     <t>2.4.1</t>
